--- a/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
@@ -1967,7 +1967,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2348,13 +2348,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>@ Store,
-Train Sophia</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
@@ -2388,12 +2387,13 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Train Sophia</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -2428,9 +2428,21 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>19)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
@@ -2507,11 +2519,7 @@
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>5:15 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -2552,7 +2560,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:15 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2595,7 +2603,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2634,7 +2642,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1511, DOWNERS GROVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2677,7 +2685,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>3825 HIGHLAND AVE</t>
+          <t>AURORA OUTPATIENT RX #1511, DOWNERS GROVE</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2744,7 +2752,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/GZ9Dc5auLrny8Qvo7</t>
+          <t>3825 HIGHLAND AVE</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2801,7 +2809,11 @@
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/GZ9Dc5auLrny8Qvo7</t>
+        </is>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -2855,21 +2867,9 @@
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
@@ -2924,18 +2924,17 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
@@ -2970,9 +2969,22 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
@@ -3058,11 +3070,7 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>6:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
@@ -3111,7 +3119,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3162,7 +3170,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3213,7 +3221,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>EAST SIDE MART, JACKSON</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3264,7 +3272,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>N168 W1940 MAIN ST</t>
+          <t>EAST SIDE MART, JACKSON</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3308,7 +3316,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hgxGLx2srCs</t>
+          <t>N168 W1940 MAIN ST</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3375,7 +3383,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>APPROX 10:30/11:30 AM START</t>
+          <t>https://goo.gl/maps/hgxGLx2srCs</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3439,7 +3447,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>APPROX 10:30/11:30 AM START</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3503,7 +3511,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3554,7 +3562,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3605,7 +3613,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3646,7 +3654,11 @@
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+        </is>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
@@ -3676,21 +3688,9 @@
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
@@ -3717,17 +3717,17 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Sante Fe, Equip</t>
         </is>
       </c>
       <c r="L60" t="inlineStr"/>
@@ -3758,9 +3758,21 @@
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y68"/>
+  <dimension ref="A1:Y69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1366,7 +1366,8 @@
       <c r="O19" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Red Van,
+Train Pamela</t>
         </is>
       </c>
       <c r="P19" t="inlineStr"/>
@@ -1614,7 +1615,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1636,7 +1637,8 @@
       <c r="W22" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Red Van,
+Train Pamela</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -1686,7 +1688,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1749,10 +1751,14 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>4th Scan work w/ Jerry</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1761,7 +1767,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1825,7 +1831,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1837,7 +1843,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1896,14 +1902,10 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>3rd week</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
@@ -1912,7 +1914,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1983,10 +1985,14 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr"/>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3rd week</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
@@ -1995,7 +2001,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2011,10 +2017,14 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr"/>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>5th Scan work w/ Jerry</t>
+        </is>
+      </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -2062,14 +2072,10 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
@@ -2078,7 +2084,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Nikki</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2094,14 +2100,10 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>3rd week</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2149,7 +2151,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2165,7 +2167,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Nikki</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2174,9 +2176,21 @@
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>3rd week</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2220,7 +2234,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2236,7 +2250,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2305,7 +2319,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2314,9 +2328,21 @@
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -2357,9 +2383,21 @@
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
@@ -2402,11 +2440,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
@@ -2451,7 +2485,7 @@
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="S34" t="inlineStr"/>
@@ -2490,7 +2524,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2529,7 +2563,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>MARIANO'S #520 +RX, CHICAGO-BRIDGEPORT</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2572,7 +2606,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>3145 S ASHLAND AVE</t>
+          <t>MARIANO'S #520 +RX, CHICAGO-BRIDGEPORT</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2615,7 +2649,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8Wt7uwiJSHJ2</t>
+          <t>3145 S ASHLAND AVE</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2652,7 +2686,11 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/8Wt7uwiJSHJ2</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2694,21 +2732,9 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -2763,15 +2789,19 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -2822,12 +2852,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2877,12 +2907,12 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2944,12 +2974,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2992,19 +3022,15 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>3rd week</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
@@ -3031,18 +3057,17 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>3rd week</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -3079,17 +3104,18 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
@@ -3130,12 +3156,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3181,12 +3207,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3232,12 +3258,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3283,18 +3309,17 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -3327,17 +3352,18 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
@@ -3394,18 +3420,17 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>@ Store,
-Train Sophia</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -3423,7 +3448,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3442,7 +3467,11 @@
           <t>Carlie</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Train Pamela</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
@@ -3458,18 +3487,18 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
           <t>@ Store,
-Rx</t>
+Train Sophia</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -3487,7 +3516,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3520,9 +3549,22 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -3538,7 +3580,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3589,7 +3631,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3623,11 +3665,7 @@
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
@@ -3637,9 +3675,21 @@
       <c r="Y57" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
@@ -3648,10 +3698,14 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr"/>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>1st Financial work w/ Carlie</t>
+        </is>
+      </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
@@ -3668,7 +3722,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3684,8 +3738,16 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
@@ -3697,7 +3759,11 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3751,11 +3817,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>8:00 AM START</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
@@ -3796,7 +3858,7 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -3827,7 +3889,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SMITH BEER &amp; LIQUOR, MILWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3858,7 +3920,7 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1413 E BRADY STREET</t>
+          <t>SMITH BEER &amp; LIQUOR, MILWAUKEE</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -3889,7 +3951,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/X1WJEhe6hdQ2</t>
+          <t>1413 E BRADY STREET</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -3918,7 +3980,11 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/X1WJEhe6hdQ2</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -3944,21 +4010,9 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3985,15 +4039,19 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -4013,6 +4071,41 @@
       <c r="X68" t="inlineStr"/>
       <c r="Y68" t="inlineStr"/>
     </row>
+    <row r="69">
+      <c r="A69" t="inlineStr"/>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
@@ -1756,7 +1756,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>4th Scan work w/ Jerry</t>
+          <t>5th Scan work w/ Jerry</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>5th Scan work w/ Jerry</t>
+          <t>6th Scan work w/ Jerry</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -2118,7 +2118,11 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Train Pamela</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
@@ -2273,10 +2277,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4th scan,
+work w/ Jerry</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
@@ -2351,8 +2360,16 @@
       <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
-      <c r="B32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
@@ -2451,11 +2468,7 @@
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
@@ -2500,7 +2513,7 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -2539,7 +2552,7 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -2578,7 +2591,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>100 E CAPITOL DR</t>
+          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2621,7 +2634,7 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
+          <t>100 E CAPITOL DR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2662,7 +2675,11 @@
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
-      <c r="B39" t="inlineStr"/>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
@@ -2700,21 +2717,9 @@
       <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
@@ -2745,17 +2750,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2812,12 +2817,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2871,12 +2876,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2926,12 +2931,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2991,9 +2996,21 @@
       <c r="Y44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
@@ -3079,11 +3096,7 @@
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>5:00 AM START</t>
-        </is>
-      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
@@ -3129,7 +3142,7 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>5:00 AM START</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
@@ -3180,7 +3193,7 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
@@ -3231,7 +3244,7 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>7000 W STATE ST</t>
+          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -3282,7 +3295,7 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/9Apjjj8M6672</t>
+          <t>7000 W STATE ST</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -3331,7 +3344,11 @@
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/9Apjjj8M6672</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
@@ -3374,21 +3391,9 @@
       <c r="Y52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
@@ -3443,17 +3448,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -3511,12 +3516,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3575,12 +3580,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3626,12 +3631,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3677,12 +3682,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3734,9 +3739,21 @@
       <c r="Y58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr"/>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>

--- a/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
@@ -1238,7 +1238,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Train Sophia</t>
+          <t>Train NasZire</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -1583,12 +1583,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Sophia</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3rd week</t>
+          <t>3rd Scan, work w/ Michael</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -1664,10 +1664,14 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>3rd week</t>
+        </is>
+      </c>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
@@ -1735,14 +1739,10 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1814,13 +1814,12 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1886,12 +1885,13 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2017,12 +2017,12 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>6th Scan work w/ Jerry</t>
+          <t>4th Scan, work w/ Carlie</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2100,10 +2100,14 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr"/>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>6th Scan work w/ Jerry</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
     </row>
@@ -2139,7 +2143,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2187,14 +2191,10 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>3rd week</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2263,9 +2263,21 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>3rd week</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2312,7 +2324,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2391,7 +2403,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2442,13 +2454,12 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>@ Store,
-Train Sophia</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -2482,12 +2493,13 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Train NasZire</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
@@ -2526,9 +2538,21 @@
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
@@ -2605,11 +2629,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>5:15 AM OFFICE MEET</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2650,7 +2670,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>5:15 AM OFFICE MEET</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2693,7 +2713,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2728,7 +2748,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1511, DOWNERS GROVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2783,7 +2803,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>3825 HIGHLAND AVE</t>
+          <t>AURORA OUTPATIENT RX #1511, DOWNERS GROVE</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2846,7 +2866,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/GZ9Dc5auLrny8Qvo7</t>
+          <t>3825 HIGHLAND AVE</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2903,7 +2923,11 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/GZ9Dc5auLrny8Qvo7</t>
+        </is>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
@@ -2957,21 +2981,9 @@
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
@@ -3018,18 +3030,17 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
@@ -3064,9 +3075,22 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -3156,11 +3180,7 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>6:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -3209,7 +3229,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>6:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3260,7 +3280,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3311,7 +3331,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>EAST SIDE MART, JACKSON</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3358,7 +3378,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>N168 W1940 MAIN ST</t>
+          <t>EAST SIDE MART, JACKSON</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3414,7 +3434,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hgxGLx2srCs</t>
+          <t>N168 W1940 MAIN ST</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3481,7 +3501,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>APPROX 10:30/11:30 AM START</t>
+          <t>https://goo.gl/maps/hgxGLx2srCs</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3545,7 +3565,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>APPROX 10:30/11:30 AM START</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3609,7 +3629,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3660,7 +3680,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>2712 E SUMNER ST</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3715,7 +3735,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3768,7 +3788,11 @@
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
+        </is>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3798,21 +3822,9 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
@@ -3839,17 +3851,17 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Sante Fe, Equip</t>
         </is>
       </c>
       <c r="L61" t="inlineStr"/>
@@ -3880,9 +3892,21 @@
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
@@ -505,7 +505,14 @@
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Scan product if shelf tag won’t scan.
+Use Category 000
+No prices on DCs—Qty only
+For Not On File: force in with qty, put one in cart with price on a sticky note.+</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
@@ -3714,7 +3714,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3766,21 +3766,9 @@
       <c r="Y58" t="inlineStr"/>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>

--- a/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
@@ -1202,7 +1202,11 @@
           <t>DJ</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
@@ -1355,8 +1359,7 @@
       <c r="K19" t="inlineStr">
         <is>
           <t>Driver,
-Red Van,
-Rx</t>
+Red Van</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -1898,7 +1901,7 @@
       <c r="K26" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+Rx</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
@@ -1359,7 +1359,8 @@
       <c r="K19" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Red Van,
+work w/ NasZire</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -1598,7 +1599,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3rd Scan, work w/ Michael</t>
+          <t>3rd Scan, work w/ Jerry</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -2418,7 +2419,8 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Michael</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
@@ -2509,7 +2511,7 @@
       <c r="K34" t="inlineStr">
         <is>
           <t>@ Store,
-Train NasZire</t>
+work w/ Josh</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
@@ -2356,7 +2356,8 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Michael</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2431,12 +2432,13 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Josh</t>
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
@@ -3364,7 +3366,8 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Michael</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -3535,7 +3538,7 @@
       <c r="S54" t="inlineStr">
         <is>
           <t>@ Store,
-Train Sophia</t>
+work w/ Josh</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
@@ -1005,7 +1005,11 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Jerry to pick up Carlie @ Slinger Pig 5:10 am</t>
+        </is>
+      </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
@@ -1059,21 +1063,13 @@
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Meet w/ Carlie address - 1100 E Commerce Blvd, Slinger</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -1136,21 +1132,9 @@
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
@@ -1222,18 +1206,17 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1283,13 +1266,14 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>Driver,
+Red Van,
+work w/ NasZire</t>
         </is>
       </c>
       <c r="L18" t="inlineStr"/>
@@ -1313,15 +1297,19 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>@ Slinger</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1353,14 +1341,13 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van,
-work w/ NasZire</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="L19" t="inlineStr"/>
@@ -1384,15 +1371,20 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1441,15 +1433,10 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>@ Store,
-After Aurora</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
@@ -1465,12 +1452,12 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S20" t="inlineStr"/>
@@ -1522,10 +1509,14 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr"/>
+          <t>NasZire</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>3rd Scan, work w/ Jerry</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1541,7 +1532,7 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -1594,12 +1585,12 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>3rd Scan, work w/ Jerry</t>
+          <t>3rd week</t>
         </is>
       </c>
       <c r="L22" t="inlineStr"/>
@@ -1621,12 +1612,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1675,14 +1666,10 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>3rd week</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
@@ -1698,12 +1685,12 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1750,10 +1737,14 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
@@ -1773,12 +1764,12 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1825,12 +1816,13 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="L25" t="inlineStr"/>
@@ -1848,12 +1840,12 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1896,13 +1888,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L26" t="inlineStr"/>
@@ -1920,12 +1911,12 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1980,7 +1971,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2007,12 +1998,12 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2067,7 +2058,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2090,12 +2081,12 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2154,7 +2145,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2181,12 +2172,12 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Nikki</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2233,7 +2224,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2260,12 +2251,12 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2335,12 +2326,13 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Michael</t>
         </is>
       </c>
       <c r="L31" t="inlineStr"/>
@@ -2363,12 +2355,12 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Nikki</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2415,13 +2407,12 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L32" t="inlineStr"/>
@@ -2442,9 +2433,21 @@
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -2468,12 +2471,13 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Josh</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -2481,9 +2485,21 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Taya</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -2507,13 +2523,12 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Josh</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
@@ -2522,11 +2537,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2552,32 +2563,16 @@
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2614,7 +2609,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>4:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2643,7 +2638,11 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE MEET</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2653,7 +2652,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>MARIANO'S #520 +RX, CHICAGO-BRIDGEPORT</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2684,7 +2683,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE MEET</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2696,7 +2695,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>3145 S ASHLAND AVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2727,7 +2726,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2739,7 +2738,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8Wt7uwiJSHJ2</t>
+          <t>MARIANO'S #520 +RX, CHICAGO-BRIDGEPORT</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2762,7 +2761,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1511, DOWNERS GROVE</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2772,7 +2771,11 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>3145 S ASHLAND AVE</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2817,7 +2820,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1511, DOWNERS GROVE</t>
+          <t>3825 HIGHLAND AVE</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2826,21 +2829,13 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>https://goo.gl/maps/8Wt7uwiJSHJ2</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -2880,7 +2875,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>3825 HIGHLAND AVE</t>
+          <t>https://maps.app.goo.gl/GZ9Dc5auLrny8Qvo7</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2889,16 +2884,8 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>Greg</t>
-        </is>
-      </c>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -2937,11 +2924,7 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/GZ9Dc5auLrny8Qvo7</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
@@ -2950,15 +2933,19 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
@@ -2995,9 +2982,21 @@
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
@@ -3005,12 +3004,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -3042,21 +3041,9 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
@@ -3064,15 +3051,20 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
@@ -3089,22 +3081,9 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
@@ -3112,19 +3091,15 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>3rd week</t>
-        </is>
-      </c>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
@@ -3146,7 +3121,11 @@
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>6:15 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
@@ -3155,20 +3134,15 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
@@ -3194,7 +3168,11 @@
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
@@ -3203,19 +3181,15 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -3243,7 +3217,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr">
         <is>
-          <t>6:15 AM OFFICE LEAVE TIME</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3254,19 +3228,15 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3294,7 +3264,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>EAST SIDE MART, JACKSON</t>
         </is>
       </c>
       <c r="K50" t="inlineStr"/>
@@ -3305,17 +3275,17 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Sophia</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>3rd week</t>
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
@@ -3345,7 +3315,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>N168 W1940 MAIN ST</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3356,18 +3326,18 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Michael</t>
+          <t>Driver,
+Red Van</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -3393,7 +3363,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr">
         <is>
-          <t>EAST SIDE MART, JACKSON</t>
+          <t>https://goo.gl/maps/hgxGLx2srCs</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3404,20 +3374,15 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3449,7 +3414,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr">
         <is>
-          <t>N168 W1940 MAIN ST</t>
+          <t>APPROX 10:30/11:30 AM START</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3460,12 +3425,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3516,7 +3481,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hgxGLx2srCs</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K54" t="inlineStr"/>
@@ -3527,18 +3492,17 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Josh</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -3580,7 +3544,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr">
         <is>
-          <t>APPROX 10:30/11:30 AM START</t>
+          <t>RAPID MART HARTFORD</t>
         </is>
       </c>
       <c r="K55" t="inlineStr"/>
@@ -3591,18 +3555,17 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
@@ -3644,7 +3607,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>2712 E SUMNER ST</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3653,9 +3616,22 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>@ Store,
+work w/ Michael</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
@@ -3695,7 +3671,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>RAPID MART HARTFORD</t>
+          <t>https://goo.gl/maps/5dpExsTUAgz</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3704,9 +3680,22 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3748,24 +3737,28 @@
       </c>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>2712 E SUMNER ST</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Office</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr"/>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3790,25 +3783,42 @@
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5dpExsTUAgz</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr"/>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>@ Store,
+work w/ Josh</t>
+        </is>
+      </c>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -3825,17 +3835,42 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -3852,21 +3887,9 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -3895,21 +3918,9 @@
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -3947,7 +3958,11 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3978,7 +3993,11 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
@@ -555,7 +555,11 @@
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>PLEASE READ NEW BULLETIN BOARD UPDATE!</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
@@ -1140,22 +1140,9 @@
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>@ Store,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
     </row>
@@ -1226,17 +1213,18 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>Train NasZire</t>
+          <t>@ Store,
+Sante Fe, Equip</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -1317,15 +1305,19 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Train NasZire</t>
+        </is>
+      </c>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
     </row>
@@ -1392,20 +1384,15 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>Driver,
-Altima</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
     </row>
@@ -1468,15 +1455,20 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1552,20 +1544,15 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1632,19 +1619,18 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
           <t>Driver,
-Red Van,
-Train Pamela</t>
+White Camry</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -1705,15 +1691,21 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van,
+Train Pamela</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1784,12 +1776,12 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1860,12 +1852,12 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1931,12 +1923,12 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="W26" t="inlineStr"/>
@@ -2018,19 +2010,15 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>NasZire</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>4th Scan, work w/ Carlie</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -2101,17 +2089,17 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>6th Scan work w/ Jerry</t>
+          <t>4th Scan, work w/ Carlie</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2192,15 +2180,19 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr"/>
+          <t>Pamela</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>6th Scan work w/ Jerry</t>
+        </is>
+      </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
     </row>
@@ -2271,19 +2263,15 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>3rd week</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2373,9 +2361,21 @@
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>3rd week</t>
+        </is>
+      </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
     </row>

--- a/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
@@ -1009,11 +1009,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Jerry to pick up Carlie @ Slinger Pig 5:10 am</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
@@ -1067,13 +1063,21 @@
         </is>
       </c>
       <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Meet w/ Carlie address - 1100 E Commerce Blvd, Slinger</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -1136,9 +1140,21 @@
         </is>
       </c>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>@ Slinger</t>
+        </is>
+      </c>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -1197,17 +1213,18 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1289,19 +1306,15 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>@ Slinger</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1367,18 +1380,17 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -1443,15 +1455,19 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>Jerry S</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1528,12 +1544,12 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
@@ -1603,12 +1619,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -1675,12 +1691,12 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -1760,12 +1776,12 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1836,12 +1852,12 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Mai</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -1907,12 +1923,12 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -1994,12 +2010,12 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Mai</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2073,12 +2089,12 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2164,12 +2180,12 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Nikki</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2247,12 +2263,12 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2347,12 +2363,12 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Nikki</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2437,21 +2453,9 @@
         </is>
       </c>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -2489,21 +2493,9 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -2541,7 +2533,11 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>4:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2576,7 +2572,11 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2613,7 +2613,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>4:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2656,7 +2656,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>MARIANO'S #520 +RX, CHICAGO-BRIDGEPORT</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2699,7 +2699,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>3145 S ASHLAND AVE</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2742,7 +2742,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>MARIANO'S #520 +RX, CHICAGO-BRIDGEPORT</t>
+          <t>https://goo.gl/maps/8Wt7uwiJSHJ2</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2775,11 +2775,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>3145 S ASHLAND AVE</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2833,13 +2829,21 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8Wt7uwiJSHJ2</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -2888,8 +2892,16 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>Greg</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -2937,17 +2949,18 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+White Camry</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -3008,12 +3021,12 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -3055,20 +3068,15 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
+          <t>Lexi</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
@@ -3095,12 +3103,12 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S46" t="inlineStr"/>
@@ -3138,12 +3146,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S47" t="inlineStr"/>
@@ -3185,15 +3193,19 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Leyna</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+          <t>Sophia</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>3rd week</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
@@ -3232,15 +3244,20 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
@@ -3279,19 +3296,15 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Sophia</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>3rd week</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
@@ -3330,18 +3343,17 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
@@ -3378,15 +3390,19 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr"/>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
@@ -3429,12 +3445,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3496,17 +3512,18 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Michael</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -3559,17 +3576,18 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
@@ -3622,18 +3640,17 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>@ Store,
-work w/ Michael</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
@@ -3686,18 +3703,18 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
           <t>@ Store,
-Supv Rx</t>
+work w/ Josh</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
@@ -3750,17 +3767,18 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
@@ -3807,22 +3825,9 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>@ Store,
-work w/ Josh</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
@@ -3859,22 +3864,9 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
@@ -3900,7 +3892,11 @@
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -3931,7 +3927,11 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
@@ -3962,11 +3962,7 @@
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -3997,11 +3993,7 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
@@ -1152,7 +1152,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>@ Slinger</t>
+          <t>@Store</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
@@ -3301,10 +3301,14 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr"/>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
@@ -3348,7 +3352,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3395,7 +3399,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3450,12 +3454,13 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Michael</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -3517,13 +3522,13 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
           <t>@ Store,
-work w/ Michael</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="T54" t="inlineStr"/>
@@ -3581,13 +3586,12 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T55" t="inlineStr"/>
@@ -3645,12 +3649,13 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+work w/ Josh</t>
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
@@ -3708,13 +3713,13 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
           <t>@ Store,
-work w/ Josh</t>
+Rx</t>
         </is>
       </c>
       <c r="T57" t="inlineStr"/>
@@ -3765,22 +3770,9 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
@@ -3865,7 +3857,11 @@
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
@@ -3894,7 +3890,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3927,11 +3923,7 @@
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>

--- a/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
+++ b/03-30-25 to 04-05-25 Milwaukee Schedule.xlsx
@@ -629,7 +629,11 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Sante Fe went to Lutters - low tire</t>
+        </is>
+      </c>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
